--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1868139.160917014</v>
+        <v>1952376.418714301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577128</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6425496.905560116</v>
+        <v>6792149.319662628</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -668,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>65.04649299074109</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>95.41665766949519</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>29.87840093348666</v>
+        <v>44.28391178232867</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
-        <v>150.2041798730781</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.1619143009821</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>149.7046444203178</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>412.3326561435236</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>57.62351118703495</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1342,13 +1344,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>212.1315239733219</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E11" t="n">
         <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
         <v>34.54790254396354</v>
@@ -1427,7 +1429,7 @@
         <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>51.69511841098203</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>160.8277938782463</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
         <v>34.54790254396354</v>
@@ -1658,10 +1660,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>146.7993190139271</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
         <v>353.9145207250131</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>234.5465007452443</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875628</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250136</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>80.96206012172712</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446594</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.706589946058</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,13 +2487,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>73.50111029899487</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2722,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>135.9161684076479</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.44671185018609</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>69.59938463938047</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095524</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533106</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>147.4334746600721</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3478,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>1.44894733164843</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>267.2259062784752</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>138.5264412189941</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>158.0577359003856</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3952,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>17.01120395616502</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>2.317367624349872</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>657.6612447231519</v>
+        <v>168.7534004685705</v>
       </c>
       <c r="C2" t="n">
-        <v>230.760514736452</v>
+        <v>145.8930745222746</v>
       </c>
       <c r="D2" t="n">
-        <v>211.5082979618563</v>
+        <v>126.640857747679</v>
       </c>
       <c r="E2" t="n">
-        <v>189.5717621501179</v>
+        <v>104.7043219359406</v>
       </c>
       <c r="F2" t="n">
-        <v>168.4879843799222</v>
+        <v>39.00079366246476</v>
       </c>
       <c r="G2" t="n">
-        <v>168.1893260097749</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516414</v>
       </c>
       <c r="M2" t="n">
-        <v>357.6855680512415</v>
+        <v>882.5260259873586</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>882.5260259873586</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="V2" t="n">
-        <v>1482.877419510889</v>
+        <v>993.969575256308</v>
       </c>
       <c r="W2" t="n">
-        <v>1086.486069811236</v>
+        <v>597.5782255566548</v>
       </c>
       <c r="X2" t="n">
-        <v>1078.806475019388</v>
+        <v>185.8582267244021</v>
       </c>
       <c r="Y2" t="n">
-        <v>673.4692049742779</v>
+        <v>184.5613607196965</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422929</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>950.4838058662884</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662884</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662884</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1407.269712569019</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375.0307363920342</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>375.0307363920342</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>375.0307363920342</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>375.0307363920342</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>203.1689621665946</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>38.71266663273894</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271597</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>784.5877828974105</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1162.079293773446</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1815.419420078219</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.284372597354</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.945024823254</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1121.760576323558</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>840.0491089315869</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>565.1967051040999</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>565.1967051040999</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>565.1967051040999</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.285383079502</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>907.563989268312</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>814.4714747539724</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1271.257381456703</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.257381456703</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.110208167586</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1076.390209335334</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.093343330628</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>44.35863542273858</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>475.2419029331439</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>615.7661652067097</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>443.7936020856257</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4768292123964</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4768292123964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1445.036356416872</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>993.3257460627433</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>842.1089335169677</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>615.7661652067097</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>550.8776849122382</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1383.742914040727</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1383.742914040727</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>972.0229152084739</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>970.7260492037683</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358747</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.1430972819095</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>361.1430972819095</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>361.1430972819095</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>302.9375304263186</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1104.902165973849</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>830.0497621463624</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>587.4858655921674</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.1430972819095</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1874.963950258506</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560449</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.596016555394</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.298803788844</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2342.291394605963</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2342.291394605963</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763891</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268074</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.963950258506</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1874.963950258506</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>351.6283820045024</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>351.6283820045024</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>351.6283820045024</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1248.620972821622</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1881.171880343509</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5633153126634</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5633153126634</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5633153126634</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>244.3460239884391</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299954</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299954</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1230.488352716669</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>955.6359488891819</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>713.072052334987</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.7292840247291</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1786.113925907822</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1786.113925907822</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>936.8443652406797</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>511.7201834300798</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>107.3811210195284</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1684.985148555618</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2153.578082946771</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>3050.570673763891</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.570673763891</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3050.570673763891</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268074</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3371.563053605009</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3371.563053605009</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3014.073638731258</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2617.682289031605</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.962290199352</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2205.962290199352</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>991.6906023320378</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>991.6906023320378</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2191.691247266772</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>2191.691247266772</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>2191.691247266772</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>2025.483041419626</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>1853.621267194186</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>1687.364297488418</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>1543.568028996573</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1727.818390166844</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>2082.507711461265</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2473.693506431515</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2851.185017307551</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>3206.613145987314</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3497.212357909215</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>3624.212488149977</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>3624.212488149977</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>3454.077440669112</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>3217.161783350683</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>3217.161783350683</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>2935.450315958712</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>2660.597912131225</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>2418.03401557703</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>2191.691247266772</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988743</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883228</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5543,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209201</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805613</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5477476675582</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>350.3395418204117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>350.3395418204117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>184.0825721146438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5753,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>939.1015214887346</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5923,37 +5925,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V22" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.991632755014</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X22" t="n">
-        <v>1358.427736200819</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.084967890562</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>775.6620294727279</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6175,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1991.298534268705</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.734663049246</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.170766495052</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>965.8279981847936</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3676.218008809645</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>3504.245445688561</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>3504.245445688561</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3338.037239841415</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4092.726745831969</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4092.726745831969</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>3866.383977521711</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6552,16 +6554,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3854.586992529306</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3682.614429408222</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4897.962009497735</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4617.77756099804</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4336.066093606069</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4336.066093606069</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4093.502197051874</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.159428741616</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.469471783483</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>920.4969086623992</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>2065.542080025265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.830612633294</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.978208805807</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1508.978208805807</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.635440495549</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6947,16 +6949,16 @@
         <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>832.9089957654462</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>832.9089957654462</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>832.9089957654462</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7126,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1023.074964477512</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.074964477512</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7187,7 +7189,7 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7199,7 +7201,7 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
@@ -7254,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>357.9938188649342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.2543031032136</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032136</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299843</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828378</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>103.7662965691098</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1037.420271815279</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.420271815279</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.420271815279</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1469.626680213397</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1042.725950226697</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1042.725950226697</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>616.749010374555</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>616.749010374555</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>212.4099479640037</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>72.48424976299954</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>88.09006554780694</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>985.0826563649263</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>1882.075247182046</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2779.067837999165</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149977</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149977</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149977</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>1874.963950258507</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1469.626680213397</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>344.1817390425906</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>934.6666656109302</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>1335.007093396027</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>1335.007093396027</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.007093396027</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.007093396027</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>905.4978445171571</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>733.5252813960731</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>570.2085085228438</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>404.0003026756973</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>232.1385284502577</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299954</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.422881921163</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1839.422881921163</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1564.570478093676</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>1322.006581539481</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>1095.663813229223</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1658.858122623187</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1658.858122623187</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1235.565501808187</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>809.5885619560449</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299954</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>787.9925577384986</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>1684.985148555618</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>1684.985148555618</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2530.12979870643</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3238.409077864358</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3502.662159723961</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3244.307250320373</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2886.817835446623</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2490.42648574697</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2078.706486914717</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2078.706486914717</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299954</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>94.69801151491845</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>991.6906023320378</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>991.6906023320378</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.4084025814685</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>817.4358394603845</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>654.1190665871552</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9108607400087</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>316.0490865145692</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2205.858663863301</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>2203.51788848517</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>1923.333439985474</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>1923.333439985474</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>1648.481036157987</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>1405.917139603792</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>1179.574371293534</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487775</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>39.73581606682288</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099922</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681977</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
-        <v>464.528326530402</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>33.56260952839078</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030947</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>454.9120992556681</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8231,7 +8233,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>458.3324042602121</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>298.7072010455656</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>457.1346235160603</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>465.2725720398024</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,7 +8616,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>335.1108459635225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719402</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>662.1122003503916</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701171</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>510.7574592541323</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719402</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>676.564443572257</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
-        <v>700.6282357017791</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,10 +9485,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>534.642907502631</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9656,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9972,7 +9974,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>480.8452212937382</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10677,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6953511146608</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10902,10 +10904,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>280.6730777314198</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>51.52805108249359</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701172</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719403</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
-        <v>426.8993572042262</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11154,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>307.0813164265342</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11379,10 +11381,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>44.95322989798603</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498223</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>210.500198713511</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>112.8510053776929</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712947</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.31046371040659</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>71.91699623188615</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23658,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.359453551114655</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.4924275998966</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23896,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>61.39624568520003</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078887</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>167.4048439973641</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.22698807553729</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.8175971747589</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>92.08422050511652</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.47873147163443</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25318,16 +25320,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>17.11264912860292</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.9093584752787</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>4.877973510736922</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>156.3632535217114</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.536664108324601</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>201.7051112896482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26071,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>238.5885866720091</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>570099.4183406985</v>
+        <v>571476.3094118772</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>570099.4183406985</v>
+        <v>575934.3806303742</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>570099.4183406985</v>
+        <v>575934.3806303742</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470475.4281755937</v>
+        <v>591724.0432116069</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470475.4281755936</v>
+        <v>591724.043211607</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>591724.0432116069</v>
+        <v>591724.043211607</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>591724.043211607</v>
+        <v>591724.0432116069</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470475.4281755938</v>
+        <v>591724.0432116069</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470475.4281755937</v>
+        <v>591724.043211607</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="D2" t="n">
         <v>495076.2678094887</v>
       </c>
       <c r="E2" t="n">
-        <v>379856.0808657499</v>
+        <v>477725.8426668306</v>
       </c>
       <c r="F2" t="n">
-        <v>379856.0808657499</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="I2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668301</v>
       </c>
       <c r="K2" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="L2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
+        <v>477725.8426668305</v>
+      </c>
+      <c r="N2" t="n">
+        <v>477725.8426668305</v>
+      </c>
+      <c r="O2" t="n">
         <v>477725.8426668303</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>477725.8426668303</v>
-      </c>
-      <c r="O2" t="n">
-        <v>379856.0808657499</v>
-      </c>
-      <c r="P2" t="n">
-        <v>379856.0808657499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051208</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051211</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26448,16 +26450,16 @@
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="N4" t="n">
+        <v>86696.74064784772</v>
+      </c>
+      <c r="O4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68898.71414051214</v>
-      </c>
-      <c r="P4" t="n">
-        <v>68898.71414051214</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71658.55397894242</v>
+        <v>66543.3766381828</v>
       </c>
       <c r="C6" t="n">
-        <v>226284.2745970629</v>
+        <v>212979.4543458282</v>
       </c>
       <c r="D6" t="n">
-        <v>226284.2745970629</v>
+        <v>236386.2880194403</v>
       </c>
       <c r="E6" t="n">
-        <v>123105.6688957562</v>
+        <v>97539.6832739126</v>
       </c>
       <c r="F6" t="n">
-        <v>255869.3369053581</v>
+        <v>313279.0398305531</v>
       </c>
       <c r="G6" t="n">
-        <v>211119.1197362431</v>
+        <v>313279.0398305531</v>
       </c>
       <c r="H6" t="n">
+        <v>313279.0398305531</v>
+      </c>
+      <c r="I6" t="n">
         <v>313279.0398305528</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>186701.7712502638</v>
+      </c>
+      <c r="K6" t="n">
+        <v>294632.439473533</v>
+      </c>
+      <c r="L6" t="n">
         <v>313279.0398305529</v>
       </c>
-      <c r="J6" t="n">
-        <v>192556.5228877959</v>
-      </c>
-      <c r="K6" t="n">
-        <v>313279.0398305526</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>133215.1683753854</v>
+      </c>
+      <c r="N6" t="n">
+        <v>313279.0398305531</v>
+      </c>
+      <c r="O6" t="n">
         <v>313279.0398305528</v>
       </c>
-      <c r="M6" t="n">
-        <v>202469.6797214194</v>
-      </c>
-      <c r="N6" t="n">
-        <v>313279.0398305529</v>
-      </c>
-      <c r="O6" t="n">
-        <v>255869.336905358</v>
-      </c>
       <c r="P6" t="n">
-        <v>255869.336905358</v>
+        <v>313279.0398305528</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374942</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.65321627716</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>355.8264470017526</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>199.4730370712103</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.68982624621193</v>
+        <v>2.284315397369909</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82.23069669041814</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>272.4275428137547</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170693</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>90.43361316833509</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>10.29906654330927</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>106.92261260164</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.81557123941228</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759746864</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>419.1474984608587</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>276.3264003875791</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>442.7574853255729</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35334,7 +35336,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>297.6795830640907</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374942</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>638.9403106281694</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374942</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>473.3261963547005</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374942</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>654.0493568580274</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>512.8720662978023</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977448</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36376,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>443.2698594835069</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>106.3043917586367</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>15.76345028768425</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374943</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
-        <v>404.3842704899967</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>270.9566418219361</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>22.43814318375647</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1952376.418714301</v>
+        <v>1951679.75750921</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>197.9063670737249</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -670,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299074109</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>5.249659500260678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232867</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>173.6651206416954</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.603705393141</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>46.1619143009821</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>365.3118751649134</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>16.77886795121469</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.9145207250131</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.87597792716499</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782463</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,25 +1609,25 @@
         <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068509</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>120.1141141230986</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875628</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536215</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396352</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250136</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2052,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2146,7 +2146,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.706589946058</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>183.6439873158822</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>70.66230422638786</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>5.580330913432535</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>27.27731368981185</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>35.56826410134468</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095524</v>
+        <v>255.7713603095531</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>102.0412378013745</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3556,10 +3556,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>42.87682513228527</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3678,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>1.44894733164843</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4185,10 +4185,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685705</v>
+        <v>159.0305212218191</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222746</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>126.640857747679</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359406</v>
+        <v>94.98144268918925</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246476</v>
+        <v>73.89766491899356</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231745</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231745</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516414</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516414</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873586</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873586</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229787</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="P2" t="n">
         <v>1361.464950229787</v>
@@ -4360,22 +4360,22 @@
         <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533646</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130059</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="V2" t="n">
-        <v>993.969575256308</v>
+        <v>1572.384561085426</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566548</v>
+        <v>1175.993211385772</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244021</v>
+        <v>764.2732125535197</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196965</v>
+        <v>358.93594250841</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422929</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762489</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018677</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>425.3664405251907</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261106</v>
+        <v>904.3053647676193</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261106</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>215.9773847773011</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>44.00482165621713</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273894</v>
+        <v>165.7127968735012</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271597</v>
+        <v>520.402118167922</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974105</v>
+        <v>911.5879131381728</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773446</v>
+        <v>1289.079424014209</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1644.507552693972</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1521.632369360908</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1241.447920861212</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>959.736453469241</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>684.884049641754</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>442.3201530875591</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>215.9773847773011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>511.9166383730114</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>376.9634006021619</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>702.082607085077</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>729.0902991667042</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>919.2562678787699</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5077,10 +5077,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399956</v>
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>496.5168264363571</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>324.5442633152732</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5220,31 +5220,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R13" t="n">
         <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>913.0255634586807</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>686.6827951484228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
         <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,22 +5281,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,61 +5503,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E19" t="n">
         <v>274.1644876312681</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5758,22 +5758,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5794,10 +5794,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>365.3880545387819</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5925,37 +5925,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506134</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025269</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251169</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751473</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359502</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320151</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778202</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675622</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6071,25 +6071,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>749.7087905854519</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>583.5005847383054</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>686.6827951484232</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6779,22 +6779,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>310.0920271275759</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>138.2302529021363</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6973,10 +6973,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2179.643783443831</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1936.304435669731</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1656.119987170036</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1374.408519778064</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1099.556115950577</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7204,7 +7204,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7256,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474637</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474637</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474637</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003172</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748776</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691098</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595294</v>
+        <v>1228.793760306111</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7654,16 +7654,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487775</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.73581606682288</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099922</v>
+        <v>521.1676505099923</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>39.87991497762237</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681977</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>411.9130334992723</v>
       </c>
       <c r="O3" t="n">
         <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587969</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839078</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030947</v>
+        <v>149.2582520094633</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>547.9768619480852</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,10 +8294,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8470,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8698,22 +8698,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>172.3011348045103</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,13 +9011,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>565.6647288525492</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9026,10 +9026,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
@@ -9254,7 +9254,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>317.6338492815534</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176105</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9719,28 +9719,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>50.71380249601871</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,10 +10427,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10597,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11153,7 +11153,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11378,7 +11378,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>111.807627217332</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040659</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>68.15019490184635</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998966</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078887</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.43535331127316</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>99.48085225679732</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>164.6725065764406</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>142.9755238000613</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24855,10 +24855,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163443</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>66.39245920468201</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>145.3874838926597</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752787</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>48.89490464996138</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>591724.043211607</v>
+        <v>591724.0432116069</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591724.043211607</v>
+        <v>591724.0432116069</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>495076.2678094888</v>
       </c>
       <c r="C2" t="n">
+        <v>495076.2678094887</v>
+      </c>
+      <c r="D2" t="n">
         <v>495076.2678094888</v>
       </c>
-      <c r="D2" t="n">
-        <v>495076.2678094887</v>
-      </c>
       <c r="E2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="F2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="K2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="L2" t="n">
         <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="O2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="P2" t="n">
         <v>477725.8426668303</v>
@@ -26368,7 +26368,7 @@
         <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361217</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701975</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795535</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,22 +26426,22 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
+        <v>86696.74064784769</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="G4" t="n">
         <v>86696.74064784775</v>
       </c>
-      <c r="F4" t="n">
-        <v>86696.74064784774</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="H4" t="n">
-        <v>86696.74064784778</v>
-      </c>
       <c r="I4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26450,10 +26450,10 @@
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784772</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="O4" t="n">
         <v>86696.74064784776</v>
@@ -26484,7 +26484,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66543.3766381828</v>
+        <v>66543.37663818283</v>
       </c>
       <c r="C6" t="n">
-        <v>212979.4543458282</v>
+        <v>212979.4543458281</v>
       </c>
       <c r="D6" t="n">
         <v>236386.2880194403</v>
       </c>
       <c r="E6" t="n">
-        <v>97539.6832739126</v>
+        <v>97488.65261172813</v>
       </c>
       <c r="F6" t="n">
-        <v>313279.0398305531</v>
+        <v>313228.0091683687</v>
       </c>
       <c r="G6" t="n">
-        <v>313279.0398305531</v>
+        <v>313228.0091683686</v>
       </c>
       <c r="H6" t="n">
-        <v>313279.0398305531</v>
+        <v>313228.0091683686</v>
       </c>
       <c r="I6" t="n">
-        <v>313279.0398305528</v>
+        <v>313228.0091683685</v>
       </c>
       <c r="J6" t="n">
-        <v>186701.7712502638</v>
+        <v>186650.7405880797</v>
       </c>
       <c r="K6" t="n">
-        <v>294632.439473533</v>
+        <v>294581.4088113489</v>
       </c>
       <c r="L6" t="n">
-        <v>313279.0398305529</v>
+        <v>313228.0091683686</v>
       </c>
       <c r="M6" t="n">
-        <v>133215.1683753854</v>
+        <v>133164.1377132009</v>
       </c>
       <c r="N6" t="n">
-        <v>313279.0398305531</v>
+        <v>313228.0091683687</v>
       </c>
       <c r="O6" t="n">
-        <v>313279.0398305528</v>
+        <v>313228.0091683685</v>
       </c>
       <c r="P6" t="n">
-        <v>313279.0398305528</v>
+        <v>313228.0091683686</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162597</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>217.7435135748898</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>355.8264470017526</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.52122307686611</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397369909</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>245.3945739651543</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>36.64913209673213</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170693</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>42.29092367901677</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.036885703207804e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-4.82703532317577e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.82703532317577e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-4.82703532317577e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-5.86590433953067e-13</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.127244855021384e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167391073</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>483.7766911539682</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.5700052857306</v>
       </c>
       <c r="O3" t="n">
         <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941228</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759746864</v>
+        <v>128.2935975567513</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>510.5455990486534</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,10 +35014,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>432.5378064344753</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35418,22 +35418,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968691</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>294.8868109925749</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>369.349378528632</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36293,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977448</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36439,28 +36439,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>27.96676420704021</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37317,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
@@ -37882,7 +37882,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
